--- a/qPCR/miRNA/miRNA data.xlsx
+++ b/qPCR/miRNA/miRNA data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="968" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,153 +22,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="50">
   <si>
-    <t>sample</t>
+    <t xml:space="preserve">sample</t>
   </si>
   <si>
-    <t>breed</t>
+    <t xml:space="preserve">breed</t>
   </si>
   <si>
-    <t>diet</t>
+    <t xml:space="preserve">diet</t>
   </si>
   <si>
-    <t>miRNA 3-686</t>
+    <t xml:space="preserve">miRNA 3-686</t>
   </si>
   <si>
-    <t>miRNA 2-411</t>
+    <t xml:space="preserve">miRNA 2-411</t>
   </si>
   <si>
-    <t>miRNA 2-431</t>
+    <t xml:space="preserve">miRNA 2-431</t>
   </si>
   <si>
-    <t>miRNA 5-747</t>
+    <t xml:space="preserve">miRNA 5-747</t>
   </si>
   <si>
-    <t>miRNA 3-667</t>
+    <t xml:space="preserve">miRNA 3-667</t>
   </si>
   <si>
-    <t>miRNA 24-581</t>
+    <t xml:space="preserve">miRNA 24-581</t>
   </si>
   <si>
-    <t>miRNA 13-203</t>
+    <t xml:space="preserve">miRNA 13-203</t>
   </si>
   <si>
-    <t>miRNA 3-646</t>
+    <t xml:space="preserve">miRNA 3-646</t>
   </si>
   <si>
-    <t>miRNA X-887</t>
+    <t xml:space="preserve">miRNA X-887</t>
   </si>
   <si>
-    <t>41B</t>
+    <t xml:space="preserve">41B</t>
   </si>
   <si>
-    <t>FIN</t>
+    <t xml:space="preserve">FIN</t>
   </si>
   <si>
-    <t>CON</t>
+    <t xml:space="preserve">CON</t>
   </si>
   <si>
-    <t>42B</t>
+    <t xml:space="preserve">42B</t>
   </si>
   <si>
-    <t>45A</t>
+    <t xml:space="preserve">45A</t>
   </si>
   <si>
-    <t>46F</t>
+    <t xml:space="preserve">46F</t>
   </si>
   <si>
-    <t>19A</t>
+    <t xml:space="preserve">19A</t>
   </si>
   <si>
-    <t>FXT</t>
+    <t xml:space="preserve">FXT</t>
   </si>
   <si>
-    <t>29A</t>
+    <t xml:space="preserve">29A</t>
   </si>
   <si>
-    <t>37C</t>
+    <t xml:space="preserve">37C</t>
   </si>
   <si>
-    <t>11E</t>
+    <t xml:space="preserve">11E</t>
   </si>
   <si>
-    <t>TEX</t>
+    <t xml:space="preserve">TEX</t>
   </si>
   <si>
-    <t>26B</t>
+    <t xml:space="preserve">26B</t>
   </si>
   <si>
-    <t>27A</t>
+    <t xml:space="preserve">27A</t>
   </si>
   <si>
-    <t>3B</t>
+    <t xml:space="preserve">3B</t>
   </si>
   <si>
-    <t>44A</t>
+    <t xml:space="preserve">44A</t>
   </si>
   <si>
-    <t>21J</t>
+    <t xml:space="preserve">21J</t>
   </si>
   <si>
-    <t>FLU</t>
+    <t xml:space="preserve">FLU</t>
   </si>
   <si>
-    <t>23C</t>
+    <t xml:space="preserve">23C</t>
   </si>
   <si>
-    <t>35C</t>
+    <t xml:space="preserve">35C</t>
   </si>
   <si>
-    <t>39A</t>
+    <t xml:space="preserve">39A</t>
   </si>
   <si>
-    <t>5B</t>
+    <t xml:space="preserve">5B</t>
   </si>
   <si>
-    <t>24A</t>
+    <t xml:space="preserve">24A</t>
   </si>
   <si>
-    <t>31A</t>
+    <t xml:space="preserve">31A</t>
   </si>
   <si>
-    <t>33A</t>
+    <t xml:space="preserve">33A</t>
   </si>
   <si>
-    <t>7G</t>
+    <t xml:space="preserve">7G</t>
   </si>
   <si>
-    <t>13B</t>
+    <t xml:space="preserve">13B</t>
   </si>
   <si>
-    <t>22A</t>
+    <t xml:space="preserve">22A</t>
   </si>
   <si>
-    <t>43A</t>
+    <t xml:space="preserve">43A</t>
   </si>
   <si>
-    <t>4H</t>
+    <t xml:space="preserve">4H</t>
   </si>
   <si>
-    <t>9K</t>
+    <t xml:space="preserve">9K</t>
   </si>
   <si>
-    <t>FIN/CON</t>
+    <t xml:space="preserve">Condition</t>
   </si>
   <si>
-    <t>TEX/CON</t>
+    <t xml:space="preserve">FIN.CON</t>
   </si>
   <si>
-    <t>FXT/CON</t>
+    <t xml:space="preserve">TEX.CON</t>
   </si>
   <si>
-    <t>FIN/FLU</t>
+    <t xml:space="preserve">FXT.CON</t>
   </si>
   <si>
-    <t>TEX/FLU</t>
+    <t xml:space="preserve">FIN.FLU</t>
   </si>
   <si>
-    <t>FXT/FLU</t>
+    <t xml:space="preserve">TEX.FLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FXT.FLU</t>
   </si>
 </sst>
 </file>
@@ -176,14 +179,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.000000000"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -238,6 +241,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -408,7 +416,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -473,6 +481,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -486,22 +495,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FIN/CON</c:v>
+                  <c:v>FIN.CON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEX/CON</c:v>
+                  <c:v>TEX.CON</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FXT/CON</c:v>
+                  <c:v>FXT.CON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FIN/FLU</c:v>
+                  <c:v>FIN.FLU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TEX/FLU</c:v>
+                  <c:v>TEX.FLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FXT/FLU</c:v>
+                  <c:v>FXT.FLU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -536,11 +545,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="17915384"/>
-        <c:axId val="23865"/>
+        <c:axId val="76142639"/>
+        <c:axId val="55713375"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17915384"/>
+        <c:axId val="76142639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +571,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -576,14 +585,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23865"/>
+        <c:crossAx val="55713375"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23865"/>
+        <c:axId val="55713375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +624,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -629,8 +638,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17915384"/>
+        <c:crossAx val="76142639"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -673,7 +683,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -738,6 +748,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -751,22 +762,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FIN/CON</c:v>
+                  <c:v>FIN.CON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEX/CON</c:v>
+                  <c:v>TEX.CON</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FXT/CON</c:v>
+                  <c:v>FXT.CON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FIN/FLU</c:v>
+                  <c:v>FIN.FLU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TEX/FLU</c:v>
+                  <c:v>TEX.FLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FXT/FLU</c:v>
+                  <c:v>FXT.FLU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -801,11 +812,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="4248954"/>
-        <c:axId val="22678858"/>
+        <c:axId val="85379902"/>
+        <c:axId val="394243"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4248954"/>
+        <c:axId val="85379902"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +838,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -841,14 +852,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22678858"/>
+        <c:crossAx val="394243"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22678858"/>
+        <c:axId val="394243"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +891,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -894,8 +905,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4248954"/>
+        <c:crossAx val="85379902"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -938,7 +950,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1003,6 +1015,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1016,22 +1029,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FIN/CON</c:v>
+                  <c:v>FIN.CON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEX/CON</c:v>
+                  <c:v>TEX.CON</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FXT/CON</c:v>
+                  <c:v>FXT.CON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FIN/FLU</c:v>
+                  <c:v>FIN.FLU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TEX/FLU</c:v>
+                  <c:v>TEX.FLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FXT/FLU</c:v>
+                  <c:v>FXT.FLU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1066,11 +1079,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="95357634"/>
-        <c:axId val="5222066"/>
+        <c:axId val="80680180"/>
+        <c:axId val="99957016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95357634"/>
+        <c:axId val="80680180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1105,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1106,14 +1119,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5222066"/>
+        <c:crossAx val="99957016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5222066"/>
+        <c:axId val="99957016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1158,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1159,8 +1172,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95357634"/>
+        <c:crossAx val="80680180"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1203,7 +1217,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1268,6 +1282,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1281,22 +1296,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FIN/CON</c:v>
+                  <c:v>FIN.CON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEX/CON</c:v>
+                  <c:v>TEX.CON</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FXT/CON</c:v>
+                  <c:v>FXT.CON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FIN/FLU</c:v>
+                  <c:v>FIN.FLU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TEX/FLU</c:v>
+                  <c:v>TEX.FLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FXT/FLU</c:v>
+                  <c:v>FXT.FLU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1331,11 +1346,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="75014373"/>
-        <c:axId val="1878571"/>
+        <c:axId val="48054119"/>
+        <c:axId val="12365744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75014373"/>
+        <c:axId val="48054119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,7 +1372,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1371,14 +1386,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1878571"/>
+        <c:crossAx val="12365744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1878571"/>
+        <c:axId val="12365744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1425,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1424,8 +1439,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75014373"/>
+        <c:crossAx val="48054119"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1468,7 +1484,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1533,6 +1549,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1546,22 +1563,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FIN/CON</c:v>
+                  <c:v>FIN.CON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEX/CON</c:v>
+                  <c:v>TEX.CON</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FXT/CON</c:v>
+                  <c:v>FXT.CON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FIN/FLU</c:v>
+                  <c:v>FIN.FLU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TEX/FLU</c:v>
+                  <c:v>TEX.FLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FXT/FLU</c:v>
+                  <c:v>FXT.FLU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1596,11 +1613,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="67365966"/>
-        <c:axId val="86677765"/>
+        <c:axId val="98556433"/>
+        <c:axId val="5298244"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67365966"/>
+        <c:axId val="98556433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1639,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1636,14 +1653,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86677765"/>
+        <c:crossAx val="5298244"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86677765"/>
+        <c:axId val="5298244"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1692,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1689,8 +1706,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67365966"/>
+        <c:crossAx val="98556433"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1733,7 +1751,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1798,6 +1816,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1811,22 +1830,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FIN/CON</c:v>
+                  <c:v>FIN.CON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEX/CON</c:v>
+                  <c:v>TEX.CON</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FXT/CON</c:v>
+                  <c:v>FXT.CON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FIN/FLU</c:v>
+                  <c:v>FIN.FLU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TEX/FLU</c:v>
+                  <c:v>TEX.FLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FXT/FLU</c:v>
+                  <c:v>FXT.FLU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1861,11 +1880,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="50520077"/>
-        <c:axId val="76958495"/>
+        <c:axId val="15191492"/>
+        <c:axId val="29352788"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50520077"/>
+        <c:axId val="15191492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,7 +1906,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1901,14 +1920,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76958495"/>
+        <c:crossAx val="29352788"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76958495"/>
+        <c:axId val="29352788"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1959,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1954,8 +1973,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50520077"/>
+        <c:crossAx val="15191492"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1998,7 +2018,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2063,6 +2083,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2076,22 +2097,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FIN/CON</c:v>
+                  <c:v>FIN.CON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEX/CON</c:v>
+                  <c:v>TEX.CON</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FXT/CON</c:v>
+                  <c:v>FXT.CON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FIN/FLU</c:v>
+                  <c:v>FIN.FLU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TEX/FLU</c:v>
+                  <c:v>TEX.FLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FXT/FLU</c:v>
+                  <c:v>FXT.FLU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2123,11 +2144,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="65485233"/>
-        <c:axId val="13238279"/>
+        <c:axId val="14635005"/>
+        <c:axId val="9770577"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65485233"/>
+        <c:axId val="14635005"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2170,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2163,14 +2184,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13238279"/>
+        <c:crossAx val="9770577"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13238279"/>
+        <c:axId val="9770577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,7 +2223,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2216,8 +2237,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65485233"/>
+        <c:crossAx val="14635005"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2260,7 +2282,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2325,6 +2347,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2338,22 +2361,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FIN/CON</c:v>
+                  <c:v>FIN.CON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEX/CON</c:v>
+                  <c:v>TEX.CON</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FXT/CON</c:v>
+                  <c:v>FXT.CON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FIN/FLU</c:v>
+                  <c:v>FIN.FLU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TEX/FLU</c:v>
+                  <c:v>TEX.FLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FXT/FLU</c:v>
+                  <c:v>FXT.FLU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2388,11 +2411,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="87216225"/>
-        <c:axId val="89961425"/>
+        <c:axId val="7867872"/>
+        <c:axId val="32960843"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87216225"/>
+        <c:axId val="7867872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2437,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2428,14 +2451,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89961425"/>
+        <c:crossAx val="32960843"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89961425"/>
+        <c:axId val="32960843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +2490,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2481,8 +2504,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87216225"/>
+        <c:crossAx val="7867872"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2525,7 +2549,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2590,6 +2614,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2603,22 +2628,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FIN/CON</c:v>
+                  <c:v>FIN.CON</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TEX/CON</c:v>
+                  <c:v>TEX.CON</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FXT/CON</c:v>
+                  <c:v>FXT.CON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FIN/FLU</c:v>
+                  <c:v>FIN.FLU</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TEX/FLU</c:v>
+                  <c:v>TEX.FLU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>FXT/FLU</c:v>
+                  <c:v>FXT.FLU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2653,11 +2678,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="54675181"/>
-        <c:axId val="53958362"/>
+        <c:axId val="61312717"/>
+        <c:axId val="34728553"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54675181"/>
+        <c:axId val="61312717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,7 +2704,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2693,14 +2718,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53958362"/>
+        <c:crossAx val="34728553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53958362"/>
+        <c:axId val="34728553"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,7 +2757,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2746,8 +2771,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54675181"/>
+        <c:crossAx val="61312717"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2793,9 +2819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>826560</xdr:colOff>
+      <xdr:colOff>826200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2804,7 +2830,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="160200" y="1429200"/>
-        <a:ext cx="5857200" cy="2742840"/>
+        <a:ext cx="5895000" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2823,9 +2849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>607680</xdr:colOff>
+      <xdr:colOff>607320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2833,8 +2859,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6399000" y="1448280"/>
-        <a:ext cx="5895720" cy="2742840"/>
+        <a:off x="6446880" y="1448280"/>
+        <a:ext cx="5933160" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2853,9 +2879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>398160</xdr:colOff>
+      <xdr:colOff>397800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2863,8 +2889,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12542760" y="1457640"/>
-        <a:ext cx="5638320" cy="2742840"/>
+        <a:off x="12628440" y="1457640"/>
+        <a:ext cx="5637960" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2883,9 +2909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>779040</xdr:colOff>
+      <xdr:colOff>778680</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2894,7 +2920,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="112680" y="4324680"/>
-        <a:ext cx="5857200" cy="2743200"/>
+        <a:ext cx="5895000" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2913,9 +2939,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>578880</xdr:colOff>
+      <xdr:colOff>578520</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2923,8 +2949,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6075000" y="4353120"/>
-        <a:ext cx="6190920" cy="2743200"/>
+        <a:off x="6113160" y="4353120"/>
+        <a:ext cx="6238080" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2943,9 +2969,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>417240</xdr:colOff>
+      <xdr:colOff>416880</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2953,8 +2979,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12561840" y="4334040"/>
-        <a:ext cx="5638320" cy="2743200"/>
+        <a:off x="12647520" y="4334040"/>
+        <a:ext cx="5637960" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2973,9 +2999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>779040</xdr:colOff>
+      <xdr:colOff>778680</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2984,7 +3010,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="112680" y="7210800"/>
-        <a:ext cx="5857200" cy="2742840"/>
+        <a:ext cx="5895000" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3003,9 +3029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
+      <xdr:colOff>597600</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3013,8 +3039,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6389280" y="7268040"/>
-        <a:ext cx="5895720" cy="2742840"/>
+        <a:off x="6437160" y="7268040"/>
+        <a:ext cx="5933160" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3033,9 +3059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>426960</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3043,8 +3069,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12571560" y="7277400"/>
-        <a:ext cx="5638320" cy="2742840"/>
+        <a:off x="12657240" y="7277400"/>
+        <a:ext cx="5637960" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3065,37 +3091,37 @@
   <dimension ref="A1:BN63"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62:A63"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="14" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="14" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="20" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="24" min="20" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="26" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="26" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="36" min="32" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="36" min="32" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="42" min="38" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="42" min="38" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="43" min="43" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="48" min="44" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="48" min="44" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="49" min="49" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="54" min="50" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="54" min="50" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="55" min="55" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="60" min="56" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="60" min="56" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="1025" min="63" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8263,24 +8289,27 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="A62:A63 J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A1:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="B1" s="0" t="s">
         <v>3</v>
       </c>
@@ -8311,7 +8340,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>2.17794292030868</v>
@@ -8343,7 +8372,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1.08191006117602</v>
@@ -8375,7 +8404,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.571344394638049</v>
@@ -8407,7 +8436,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.405146545353429</v>
@@ -8439,7 +8468,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.474830665544366</v>
@@ -8471,7 +8500,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0.677678861477333</v>
@@ -8521,7 +8550,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A62:A63 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
